--- a/controller/downloads/matched.xlsx
+++ b/controller/downloads/matched.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Cameroonian </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Cameroonian </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Cameroonian </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Burundian</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Burundian</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
